--- a/Proyectos/2016/Cambios/Solicitud_cambio_160113.xlsx
+++ b/Proyectos/2016/Cambios/Solicitud_cambio_160113.xlsx
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>Resolución:</t>
   </si>
@@ -270,16 +270,20 @@
   </si>
   <si>
     <t>Resultado:</t>
+  </si>
+  <si>
+    <t>Aprobado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
     <numFmt numFmtId="166" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -465,7 +469,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -571,6 +575,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -695,8 +703,8 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -909,7 +917,9 @@
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="17"/>
+      <c r="H13" s="17" t="n">
+        <v>42382</v>
+      </c>
       <c r="I13" s="18" t="n">
         <v>1</v>
       </c>
@@ -932,7 +942,9 @@
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="17"/>
+      <c r="H14" s="17" t="n">
+        <v>42384</v>
+      </c>
       <c r="I14" s="18" t="n">
         <v>1</v>
       </c>
@@ -1091,51 +1103,61 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="27" t="n">
+        <v>42382</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="C31" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="27" t="n">
+        <v>42382</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="28"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="29"/>
+    </row>
+    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="25"/>
       <c r="B34" s="25"/>
       <c r="C34" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="27" t="n">
+        <v>42384</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="21">
